--- a/docs/BOM.xlsx
+++ b/docs/BOM.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasho\OneDrive\Documents\Yashodev_Vyas_Noise-Canceled-Fan\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F79950D-B8A6-4FAA-91C4-D5034CABE716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -184,8 +190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,13 +267,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -305,7 +319,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -339,6 +353,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -373,9 +388,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -548,14 +564,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -607,7 +625,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -633,7 +651,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -650,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>8.890000000000001</v>
+        <v>8.89</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>43</v>
@@ -659,7 +677,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -685,7 +703,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -711,7 +729,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -737,7 +755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -763,7 +781,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -789,7 +807,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -815,7 +833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -841,7 +859,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -869,17 +887,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G9" r:id="rId8"/>
-    <hyperlink ref="G10" r:id="rId9"/>
-    <hyperlink ref="G11" r:id="rId10"/>
-    <hyperlink ref="G12" r:id="rId11"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/BOM.xlsx
+++ b/docs/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasho\OneDrive\Documents\Yashodev_Vyas_Noise-Canceled-Fan\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F79950D-B8A6-4FAA-91C4-D5034CABE716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523CA617-04C2-4AA4-88D8-2F2E20FFDEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1920" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -568,12 +568,12 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -625,7 +625,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -651,7 +651,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -677,7 +677,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -703,7 +703,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -729,7 +729,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -755,7 +755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -781,7 +781,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -807,7 +807,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -833,7 +833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -859,7 +859,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
